--- a/test_suite_cnj06qj.xlsx
+++ b/test_suite_cnj06qj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>模块</t>
   </si>
@@ -70,6 +70,15 @@
     <t>公共</t>
   </si>
   <si>
+    <t>公共-工作台页面显示等待</t>
+  </si>
+  <si>
+    <t>until_wait</t>
+  </si>
+  <si>
+    <t>//div[@class='container-fluid']</t>
+  </si>
+  <si>
     <t>公共-登录用户名称检查</t>
   </si>
   <si>
@@ -91,6 +100,12 @@
     <t>//div[@id='outAndOver'][2]</t>
   </si>
   <si>
+    <t>工作台-我的待办等待完成</t>
+  </si>
+  <si>
+    <t>//button[text()='业务办理']</t>
+  </si>
+  <si>
     <t>我的待办</t>
   </si>
   <si>
@@ -127,24 +142,15 @@
     <t>我的待办-业务办理</t>
   </si>
   <si>
-    <t>//button[text()='业务办理']</t>
-  </si>
-  <si>
     <t>取件</t>
   </si>
   <si>
-    <t>取件-环节名称高亮</t>
-  </si>
-  <si>
-    <t>highlight</t>
+    <t>取件-环节名称点击</t>
   </si>
   <si>
     <t>//div[text()='当前环节处理人信息']/following-sibling::*//td[@title='送达']</t>
   </si>
   <si>
-    <t>取件-环节名称点击</t>
-  </si>
-  <si>
     <t>取件-环节名称验证</t>
   </si>
   <si>
@@ -157,7 +163,13 @@
     <t>取件-确定</t>
   </si>
   <si>
-    <t>//button[contains(text(),'确定')]</t>
+    <t>document_get</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>('btn btn_minwidth btn-primary js-ok')[0]</t>
   </si>
   <si>
     <t>取件-提交结果检查</t>
@@ -297,10 +309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -321,16 +333,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,15 +379,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,7 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,14 +417,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -398,38 +441,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,21 +449,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,6 +462,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -480,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,23 +713,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,22 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,133 +803,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,12 +1328,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1418,32 +1430,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:5">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="23" t="s">
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>9</v>
@@ -1452,201 +1461,219 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="1" t="s">
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="1" t="s">
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="2:5">
+      <c r="E9" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>32</v>
+      <c r="E10" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:5">
-      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>39</v>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="2:5">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C14" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="E14" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
+      <c r="C15" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>44</v>
+      <c r="E16" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:5">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="2:5">
+    <row r="18" ht="14.25" spans="1:5">
+      <c r="A18" s="1"/>
       <c r="B18" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:5">
       <c r="B19" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="2:5">
-      <c r="B20" s="14"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="3:5">
+      <c r="B20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="2:5">
+      <c r="B21" s="14"/>
       <c r="C21" s="8"/>
       <c r="D21" s="24"/>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="8"/>
+    <row r="22" spans="3:5">
       <c r="C22" s="8"/>
       <c r="D22" s="24"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:5">
       <c r="B23" s="8"/>
-    </row>
-    <row r="24" ht="14.25" spans="6:6">
-      <c r="F24" s="15"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="26" ht="14.25" spans="6:6">
+      <c r="F26" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1657,23 +1684,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1702,91 +1731,91 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" ht="27" spans="1:5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1798,10 +1827,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1816,33 +1845,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1851,14 +1880,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -1874,7 +1903,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -1884,13 +1913,11 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="13">
-        <v>2</v>
-      </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -1899,122 +1926,124 @@
         <v>17</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="E5" s="12"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="14.25" spans="1:6">
       <c r="A6" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>87</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2022,87 +2051,101 @@
         <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:3">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:3">
+    </row>
+    <row r="19" ht="14.25" spans="1:6">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="3:5">
-      <c r="C21" s="8"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="3:3">
+        <v>51</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="3:5">
       <c r="C22" s="8"/>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
-        <v>90</v>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
